--- a/Daily/Forecast/Stationaritiy/Square Percentage Return/Nippon_tel.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Percentage Return/Nippon_tel.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>1.018261970991676</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-108.5498813616493</v>
+        <v>-109.7175305031848</v>
       </c>
       <c r="E2">
-        <v>110.5864053036326</v>
+        <v>109.7175305031848</v>
       </c>
       <c r="F2">
         <v>16.8970517612447</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.09870353196917314</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-109.4499468115335</v>
+        <v>-109.6982329857072</v>
       </c>
       <c r="E3">
-        <v>109.6473538754719</v>
+        <v>109.6982329857072</v>
       </c>
       <c r="F3">
         <v>-12.65304718639371</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.6007669654689805</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-110.1293279985215</v>
+        <v>-109.6780973675476</v>
       </c>
       <c r="E4">
-        <v>108.9277940675836</v>
+        <v>109.6780973675476</v>
       </c>
       <c r="F4">
         <v>-4.24400457485099</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>0.1880698441989339</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-109.3194020698789</v>
+        <v>-109.6570111910314</v>
       </c>
       <c r="E5">
-        <v>109.6955417582768</v>
+        <v>109.6570111910314</v>
       </c>
       <c r="F5">
         <v>21.08870582289768</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.7888661153492382</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-108.7004015765231</v>
+        <v>-109.6388270936262</v>
       </c>
       <c r="E6">
-        <v>110.2781338072215</v>
+        <v>109.6388270936262</v>
       </c>
       <c r="F6">
         <v>-4.191654061652983</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.6643264827209614</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-110.1326070200151</v>
+        <v>-109.617761855372</v>
       </c>
       <c r="E7">
-        <v>108.8039540545732</v>
+        <v>109.617761855372</v>
       </c>
       <c r="F7">
         <v>-21.15436666681418</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.4981151149342278</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-109.9480978761081</v>
+        <v>-109.5996192406116</v>
       </c>
       <c r="E8">
-        <v>108.9518676462397</v>
+        <v>109.5996192406116</v>
       </c>
       <c r="F8">
         <v>12.73210373674871</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.8527247947300776</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-108.577313409867</v>
+        <v>-109.5795560933594</v>
       </c>
       <c r="E9">
-        <v>110.2827629993272</v>
+        <v>109.5795560933594</v>
       </c>
       <c r="F9">
         <v>8.422262930065472</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>-0.1628996553369095</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-109.5722065093314</v>
+        <v>-109.5588878454939</v>
       </c>
       <c r="E10">
-        <v>109.2464071986576</v>
+        <v>109.5588878454939</v>
       </c>
       <c r="F10">
         <v>-8.422262930065472</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.2612007970526697</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-109.6498625768723</v>
+        <v>-109.5382316500697</v>
       </c>
       <c r="E11">
-        <v>109.127460982767</v>
+        <v>109.5382316500697</v>
       </c>
       <c r="F11">
         <v>-8.474788831179225</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.2030672009864904</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-109.5710908810346</v>
+        <v>-109.5175934986107</v>
       </c>
       <c r="E12">
-        <v>109.1649564790616</v>
+        <v>109.5175934986107</v>
       </c>
       <c r="F12">
         <v>4.24400457485099</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.3068967106379388</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-109.0401779019409</v>
+        <v>-109.4966034776962</v>
       </c>
       <c r="E13">
-        <v>109.6539713232168</v>
+        <v>109.4966034776962</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.1886061083494554</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-109.5146105283523</v>
+        <v>-109.4755038333192</v>
       </c>
       <c r="E14">
-        <v>109.1373983116533</v>
+        <v>109.4755038333192</v>
       </c>
       <c r="F14">
         <v>-8.501319480420477</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.2487816622944674</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-109.5541949621055</v>
+        <v>-109.4549049394585</v>
       </c>
       <c r="E15">
-        <v>109.0566316375165</v>
+        <v>109.4549049394585</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.1529657012740692</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-109.1314017539911</v>
+        <v>-109.433829574877</v>
       </c>
       <c r="E16">
-        <v>109.4373331565393</v>
+        <v>109.433829574877</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.09399634543540566</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-109.3573294396311</v>
+        <v>-109.412766379691</v>
       </c>
       <c r="E17">
-        <v>109.1693367487603</v>
+        <v>109.412766379691</v>
       </c>
       <c r="F17">
         <v>-4.270716199721036</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.1254456702147144</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-109.367874420442</v>
+        <v>-109.3918385654313</v>
       </c>
       <c r="E18">
-        <v>109.1169830800125</v>
+        <v>109.3918385654313</v>
       </c>
       <c r="F18">
         <v>12.77203568014151</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.6250355443092417</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-108.5975081425441</v>
+        <v>-109.3719015078291</v>
       </c>
       <c r="E19">
-        <v>109.8475792311626</v>
+        <v>109.3719015078291</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.3842884938275584</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-109.585836431368</v>
+        <v>-109.3508745151311</v>
       </c>
       <c r="E20">
-        <v>108.8172594437129</v>
+        <v>109.3508745151311</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.2362484595424831</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-108.9443143055647</v>
+        <v>-109.329859645231</v>
       </c>
       <c r="E21">
-        <v>109.4168112246496</v>
+        <v>109.329859645231</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.1451388479052268</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-109.3047280523072</v>
+        <v>-109.3088568864847</v>
       </c>
       <c r="E22">
-        <v>109.0144503564968</v>
+        <v>109.3088568864847</v>
       </c>
       <c r="F22">
         <v>12.65304718639371</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.6319978944836047</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-108.5077363359075</v>
+        <v>-109.2889468082676</v>
       </c>
       <c r="E23">
-        <v>109.7717321248747</v>
+        <v>109.2889468082676</v>
       </c>
       <c r="F23">
         <v>-8.422262930065472</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.7495054867132707</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-109.8688437042114</v>
+        <v>-109.2684467017185</v>
       </c>
       <c r="E24">
-        <v>108.3698327307848</v>
+        <v>109.2684467017185</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.4608343026671734</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-108.6375693575027</v>
+        <v>-109.2474799075694</v>
       </c>
       <c r="E25">
-        <v>109.5592379628371</v>
+        <v>109.2474799075694</v>
       </c>
       <c r="F25">
         <v>16.79270153636985</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.4368702110607838</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-108.6424087722618</v>
+        <v>-109.2284273528238</v>
       </c>
       <c r="E26">
-        <v>109.5161491943834</v>
+        <v>109.2284273528238</v>
       </c>
       <c r="F26">
         <v>61.19352578677528</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>2.360361134360112</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-106.7229293043086</v>
+        <v>-109.2327355635003</v>
       </c>
       <c r="E27">
-        <v>111.4436515730289</v>
+        <v>109.2327355635003</v>
       </c>
       <c r="F27">
         <v>35.4463057457739</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.07760812477096124</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-108.9921623132721</v>
+        <v>-109.220269339243</v>
       </c>
       <c r="E28">
-        <v>109.147378562814</v>
+        <v>109.220269339243</v>
       </c>
       <c r="F28">
         <v>26.95232018437892</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>1.115759670770643</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-107.9379888808896</v>
+        <v>-109.204239491887</v>
       </c>
       <c r="E29">
-        <v>110.1695082224309</v>
+        <v>109.204239491887</v>
       </c>
       <c r="F29">
         <v>275.9279253253439</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>13.23373126272512</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-96.33595802400382</v>
+        <v>-109.6951172663688</v>
       </c>
       <c r="E30">
-        <v>122.8034205494541</v>
+        <v>109.6951172663688</v>
       </c>
       <c r="F30">
         <v>79.2323727904531</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>3.68892734416204</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-105.8887810878321</v>
+        <v>-109.7162019084328</v>
       </c>
       <c r="E31">
-        <v>113.2666357761562</v>
+        <v>109.7162019084328</v>
       </c>
       <c r="F31">
         <v>219.7037590714153</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>13.53597515514846</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-96.32373345274354</v>
+        <v>-110.018197149452</v>
       </c>
       <c r="E32">
-        <v>123.3956837630405</v>
+        <v>110.018197149452</v>
       </c>
       <c r="F32">
         <v>-116.7230010077809</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>-2.396355159185568</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-112.3473954016677</v>
+        <v>-110.0881274437284</v>
       </c>
       <c r="E33">
-        <v>107.5546850832966</v>
+        <v>110.0881274437284</v>
       </c>
       <c r="F33">
         <v>-123.8859883631434</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>-6.787461798960841</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-116.814824657029</v>
+        <v>-110.1694514444598</v>
       </c>
       <c r="E34">
-        <v>103.2399010591073</v>
+        <v>110.1694514444598</v>
       </c>
       <c r="F34">
         <v>-21.21376749476056</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-2.169181022065627</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-112.1768985725748</v>
+        <v>-110.1513924045515</v>
       </c>
       <c r="E35">
-        <v>107.8385365284436</v>
+        <v>110.1513924045515</v>
       </c>
       <c r="F35">
         <v>-33.98354249802367</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-2.09668744259068</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-112.0901324487752</v>
+        <v>-110.1380415427223</v>
       </c>
       <c r="E36">
-        <v>107.8967575635938</v>
+        <v>110.1380415427223</v>
       </c>
       <c r="F36">
         <v>-73.78565912335233</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>-4.105526874341349</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-114.1122330913839</v>
+        <v>-110.1532733439089</v>
       </c>
       <c r="E37">
-        <v>105.9011793427012</v>
+        <v>110.1532733439089</v>
       </c>
       <c r="F37">
         <v>-19.89627632454187</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-1.783589993402174</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-111.7709552004726</v>
+        <v>-110.1348778452808</v>
       </c>
       <c r="E38">
-        <v>108.2037752136683</v>
+        <v>110.1348778452808</v>
       </c>
       <c r="F38">
         <v>16.59959351422913</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.5066305530035433</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-109.4619884186055</v>
+        <v>-110.1156922854872</v>
       </c>
       <c r="E39">
-        <v>110.4752495246126</v>
+        <v>110.1156922854872</v>
       </c>
       <c r="F39">
         <v>89.53356963582095</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>4.617908342536746</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-105.3825087439102</v>
+        <v>-110.1480315133276</v>
       </c>
       <c r="E40">
-        <v>114.6183254289837</v>
+        <v>110.1480315133276</v>
       </c>
       <c r="F40">
         <v>-106.1331631500501</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-4.428396498657374</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-114.4894327507691</v>
+        <v>-110.2019298048905</v>
       </c>
       <c r="E41">
-        <v>105.6326397534543</v>
+        <v>110.2019298048905</v>
       </c>
       <c r="F41">
         <v>9.983109735436813</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.3142181544112281</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-110.3556559595147</v>
+        <v>-110.1815833343042</v>
       </c>
       <c r="E42">
-        <v>109.7272196506922</v>
+        <v>110.1815833343042</v>
       </c>
       <c r="F42">
         <v>-40.36299171805879</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-2.044210820513454</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-112.0753506455563</v>
+        <v>-110.1714116048947</v>
       </c>
       <c r="E43">
-        <v>107.9869290045294</v>
+        <v>110.1714116048947</v>
       </c>
       <c r="F43">
         <v>-41.5540722323037</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>-2.439473461927066</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-112.4600343304338</v>
+        <v>-110.1618947815648</v>
       </c>
       <c r="E44">
-        <v>107.5810874065797</v>
+        <v>110.1618947815648</v>
       </c>
       <c r="F44">
         <v>-53.73836500527176</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-3.139901814757291</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-113.1570071976418</v>
+        <v>-110.1600940781148</v>
       </c>
       <c r="E45">
-        <v>106.8772035681272</v>
+        <v>110.1600940781148</v>
       </c>
       <c r="F45">
         <v>53.73836500527176</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>2.046523184902741</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-107.9711227823279</v>
+        <v>-110.1582947161832</v>
       </c>
       <c r="E46">
-        <v>112.0641691521334</v>
+        <v>110.1582947161832</v>
       </c>
       <c r="F46">
         <v>-61.06245080441894</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>-2.564548613604295</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-112.5877090200646</v>
+        <v>-110.1620754079349</v>
       </c>
       <c r="E47">
-        <v>107.458611792856</v>
+        <v>110.1620754079349</v>
       </c>
       <c r="F47">
         <v>61.06245080441894</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>2.411740677432851</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-107.617371929642</v>
+        <v>-110.1658530939438</v>
       </c>
       <c r="E48">
-        <v>112.4408532845077</v>
+        <v>110.1658530939438</v>
       </c>
       <c r="F48">
         <v>-21.24800196429675</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.5073929723908037</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-110.5193038652151</v>
+        <v>-110.1479006138203</v>
       </c>
       <c r="E49">
-        <v>109.5045179204335</v>
+        <v>110.1479006138203</v>
       </c>
       <c r="F49">
         <v>106.4771738098592</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>4.974096798336838</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-105.092846145682</v>
+        <v>-110.2020992300428</v>
       </c>
       <c r="E50">
-        <v>115.0410397423557</v>
+        <v>110.2020992300428</v>
       </c>
       <c r="F50">
         <v>32.70214493360371</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>2.675083394847656</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-107.3760372859355</v>
+        <v>-110.1882453580975</v>
       </c>
       <c r="E51">
-        <v>112.7262040756309</v>
+        <v>110.1882453580975</v>
       </c>
       <c r="F51">
         <v>31.96633345157167</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>2.155593916789526</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-107.8803125396873</v>
+        <v>-110.1740851969022</v>
       </c>
       <c r="E52">
-        <v>112.1915003732664</v>
+        <v>110.1740851969022</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.4869627990366476</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-109.5280847699034</v>
+        <v>-110.1531693760784</v>
       </c>
       <c r="E53">
-        <v>110.5020103679767</v>
+        <v>110.1531693760784</v>
       </c>
       <c r="F53">
         <v>49.70178193010568</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>2.510576296329628</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-107.4996444020918</v>
+        <v>-110.1486147432009</v>
       </c>
       <c r="E54">
-        <v>112.520796994751</v>
+        <v>110.1486147432009</v>
       </c>
       <c r="F54">
         <v>45.08083412312587</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>2.768617063510058</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-107.2327372379214</v>
+        <v>-110.1411657600232</v>
       </c>
       <c r="E55">
-        <v>112.7699713649415</v>
+        <v>110.1411657600232</v>
       </c>
       <c r="F55">
         <v>14.71860037223962</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>1.360576870075916</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-108.620864404415</v>
+        <v>-110.121712941688</v>
       </c>
       <c r="E56">
-        <v>111.3420181445669</v>
+        <v>110.121712941688</v>
       </c>
       <c r="F56">
         <v>74.2123375245157</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>3.941026326918646</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-106.0546996828937</v>
+        <v>-110.1372551763165</v>
       </c>
       <c r="E57">
-        <v>113.936752336731</v>
+        <v>110.1372551763165</v>
       </c>
       <c r="F57">
         <v>54.61589818700645</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>3.648429931169648</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-106.3434368186598</v>
+        <v>-110.1361006626095</v>
       </c>
       <c r="E58">
-        <v>113.6402966809991</v>
+        <v>110.1361006626095</v>
       </c>
       <c r="F58">
         <v>34.43729737854966</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>2.604484769004841</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-107.3728180384944</v>
+        <v>-110.1230751987049</v>
       </c>
       <c r="E59">
-        <v>112.5817875765041</v>
+        <v>110.1230751987049</v>
       </c>
       <c r="F59">
         <v>195.8949065416249</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>10.52863916906411</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-99.67450187754356</v>
+        <v>-110.3554251525644</v>
       </c>
       <c r="E60">
-        <v>120.7317802156718</v>
+        <v>110.3554251525644</v>
       </c>
       <c r="F60">
         <v>213.6102311739677</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>14.80433051816123</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-95.64844347538363</v>
+        <v>-110.6347941631411</v>
       </c>
       <c r="E61">
-        <v>125.2571045117061</v>
+        <v>110.6347941631411</v>
       </c>
       <c r="F61">
         <v>-213.6102311739677</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-7.749455111873928</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-118.5208443471057</v>
+        <v>-110.9132488950333</v>
       </c>
       <c r="E62">
-        <v>103.0219341233578</v>
+        <v>110.9132488950333</v>
       </c>
       <c r="F62">
         <v>-16.14828906982524</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-2.42898591784951</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-113.1798747477384</v>
+        <v>-110.8939807133722</v>
       </c>
       <c r="E63">
-        <v>108.3219029120393</v>
+        <v>110.8939807133722</v>
       </c>
       <c r="F63">
         <v>65.79801446604492</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>3.243437989322986</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-107.5178956357085</v>
+        <v>-110.9013688935337</v>
       </c>
       <c r="E64">
-        <v>114.0047716143545</v>
+        <v>110.9013688935337</v>
       </c>
       <c r="F64">
         <v>-70.44397125027118</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>-2.866387697677675</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-113.6409851714626</v>
+        <v>-110.9128938982615</v>
       </c>
       <c r="E65">
-        <v>107.9082097761072</v>
+        <v>110.9128938982615</v>
       </c>
       <c r="F65">
         <v>4.645956784226257</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.3578581318406471</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-111.1118970560392</v>
+        <v>-110.8920824869944</v>
       </c>
       <c r="E66">
-        <v>110.396180792358</v>
+        <v>110.8920824869944</v>
       </c>
       <c r="F66">
         <v>-37.57830715616777</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-1.893262023417269</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-112.6354564537638</v>
+        <v>-110.8803801833652</v>
       </c>
       <c r="E67">
-        <v>108.8489324069293</v>
+        <v>110.8803801833652</v>
       </c>
       <c r="F67">
         <v>-60.6815267007164</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-3.343262252529808</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-114.0871796890937</v>
+        <v>-110.8835315252465</v>
       </c>
       <c r="E68">
-        <v>107.4006551840341</v>
+        <v>110.8835315252465</v>
       </c>
       <c r="F68">
         <v>-27.50676197507929</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-2.053825857985204</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-112.7806648240502</v>
+        <v>-110.8675548854523</v>
       </c>
       <c r="E69">
-        <v>108.6730131080798</v>
+        <v>110.8675548854523</v>
       </c>
       <c r="F69">
         <v>-12.67426904583573</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-1.060811846080982</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-111.7675026647812</v>
+        <v>-110.8476924078651</v>
       </c>
       <c r="E70">
-        <v>109.6458789726192</v>
+        <v>110.8476924078651</v>
       </c>
       <c r="F70">
         <v>35.2176678553846</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>1.49430035558187</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-109.2001246072175</v>
+        <v>-110.8348968526526</v>
       </c>
       <c r="E71">
-        <v>112.1887253183813</v>
+        <v>110.8348968526526</v>
       </c>
       <c r="F71">
         <v>-58.30941515950414</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>-2.493906836957379</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-113.1908544310372</v>
+        <v>-110.8362181037533</v>
       </c>
       <c r="E72">
-        <v>108.2030407571224</v>
+        <v>110.8362181037533</v>
       </c>
       <c r="F72">
         <v>-44.63214000398779</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-2.705102216117984</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-113.3927938708715</v>
+        <v>-110.8283443820025</v>
       </c>
       <c r="E73">
-        <v>107.9825894386356</v>
+        <v>110.8283443820025</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.5720097809574973</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-111.2389024351068</v>
+        <v>-110.8074707883751</v>
       </c>
       <c r="E74">
-        <v>110.0948828731918</v>
+        <v>110.8074707883751</v>
       </c>
       <c r="F74">
         <v>2.663328849535418</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.008996795388302559</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-110.6371292570192</v>
+        <v>-110.7866552881729</v>
       </c>
       <c r="E75">
-        <v>110.6551228477958</v>
+        <v>110.7866552881729</v>
       </c>
       <c r="F75">
         <v>-2.663328849535418</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.1275578179247221</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-110.7529068872842</v>
+        <v>-110.7658515490891</v>
       </c>
       <c r="E76">
-        <v>110.4977912514348</v>
+        <v>110.7658515490891</v>
       </c>
       <c r="F76">
         <v>10.62440493268397</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>0.4893904181808399</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-110.1159021153048</v>
+        <v>-110.7457498382445</v>
       </c>
       <c r="E77">
-        <v>111.0946829516665</v>
+        <v>110.7457498382445</v>
       </c>
       <c r="F77">
         <v>-24.01418182489365</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-1.063068797173354</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-111.6514832072103</v>
+        <v>-110.7286854220097</v>
       </c>
       <c r="E78">
-        <v>109.5253456128636</v>
+        <v>110.7286854220097</v>
       </c>
       <c r="F78">
         <v>26.65829952165879</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>1.068352616926294</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-109.5042908755418</v>
+        <v>-110.7125051024075</v>
       </c>
       <c r="E79">
-        <v>111.6409961093944</v>
+        <v>110.7125051024075</v>
       </c>
       <c r="F79">
         <v>111.8784787370288</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>5.700935365630365</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-104.9310638885351</v>
+        <v>-110.7732937945416</v>
       </c>
       <c r="E80">
-        <v>116.3329346197959</v>
+        <v>110.7732937945416</v>
       </c>
       <c r="F80">
         <v>-111.8784787370288</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>-5.211869730805125</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-115.9144524435474</v>
+        <v>-110.8340035122649</v>
       </c>
       <c r="E81">
-        <v>105.4907129819372</v>
+        <v>110.8340035122649</v>
       </c>
       <c r="F81">
         <v>64.60346577123701</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>2.063681233898382</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-108.6474306738311</v>
+        <v>-110.8403545809605</v>
       </c>
       <c r="E82">
-        <v>112.7747931416278</v>
+        <v>110.8403545809605</v>
       </c>
       <c r="F82">
         <v>-64.60346577123701</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-2.459636066722595</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-113.1788946240631</v>
+        <v>-110.8467005181056</v>
       </c>
       <c r="E83">
-        <v>108.2596224906179</v>
+        <v>110.8467005181056</v>
       </c>
       <c r="F83">
         <v>-13.26852262944911</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-1.221781646881634</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-111.9210255770874</v>
+        <v>-110.8270467625952</v>
       </c>
       <c r="E84">
-        <v>109.4774622833241</v>
+        <v>110.8270467625952</v>
       </c>
       <c r="F84">
         <v>7.97551251223183</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.06474427583194009</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-110.6142868654494</v>
+        <v>-110.8066731394131</v>
       </c>
       <c r="E85">
-        <v>110.7437754171133</v>
+        <v>110.8066731394131</v>
       </c>
       <c r="F85">
         <v>-15.99467517667463</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.7190584148051395</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-111.3790162276603</v>
+        <v>-110.7875606521013</v>
       </c>
       <c r="E86">
-        <v>109.9408993980501</v>
+        <v>110.7875606521013</v>
       </c>
       <c r="F86">
         <v>-18.88406111830889</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-1.04684774783966</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-111.6882123830982</v>
+        <v>-110.7691142038563</v>
       </c>
       <c r="E87">
-        <v>109.5945168874189</v>
+        <v>110.7691142038563</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.2602305645611402</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-110.8808732600865</v>
+        <v>-110.7483612080387</v>
       </c>
       <c r="E88">
-        <v>110.3604121309643</v>
+        <v>110.7483612080387</v>
       </c>
       <c r="F88">
         <v>2.712701429570075</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.06005332890852133</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-110.5399294322775</v>
+        <v>-110.727667682308</v>
       </c>
       <c r="E89">
-        <v>110.6600360900945</v>
+        <v>110.727667682308</v>
       </c>
       <c r="F89">
         <v>29.51234908669207</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>1.371775628440441</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-109.2131423263325</v>
+        <v>-110.7125955560741</v>
       </c>
       <c r="E90">
-        <v>111.9566935832134</v>
+        <v>110.7125955560741</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.3399841934172361</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-110.2242507611668</v>
+        <v>-110.6918764400405</v>
       </c>
       <c r="E91">
-        <v>110.9042191480013</v>
+        <v>110.6918764400405</v>
       </c>
       <c r="F91">
         <v>57.30172611787197</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>2.713530302089572</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-107.8511105861172</v>
+        <v>-110.692486746649</v>
       </c>
       <c r="E92">
-        <v>113.2781711902964</v>
+        <v>110.692486746649</v>
       </c>
       <c r="F92">
         <v>60.07252747660701</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>3.465390866652996</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-107.0999382507443</v>
+        <v>-110.6952070397053</v>
       </c>
       <c r="E93">
-        <v>114.0307199840503</v>
+        <v>110.6952070397053</v>
       </c>
       <c r="F93">
         <v>-72.90108045374168</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-2.497806162128583</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-113.0803167489056</v>
+        <v>-110.7089899488507</v>
       </c>
       <c r="E94">
-        <v>108.0847044246484</v>
+        <v>110.7089899488507</v>
       </c>
       <c r="F94">
         <v>158.6873350384799</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>6.389329641906905</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-104.3408398782002</v>
+        <v>-110.8514794417475</v>
       </c>
       <c r="E95">
-        <v>117.119499162014</v>
+        <v>110.8514794417475</v>
       </c>
       <c r="F95">
         <v>16.12346866055461</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>2.513242653079222</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-108.1968530988975</v>
+        <v>-110.832456096535</v>
       </c>
       <c r="E96">
-        <v>113.223338405056</v>
+        <v>110.832456096535</v>
       </c>
       <c r="F96">
         <v>-87.26450052828341</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-3.267940383842681</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-114.0094901101665</v>
+        <v>-110.861040307122</v>
       </c>
       <c r="E97">
-        <v>107.4736093424811</v>
+        <v>110.861040307122</v>
       </c>
       <c r="F97">
         <v>50.1524183365575</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>1.342247377987061</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-109.3970711855768</v>
+        <v>-110.8566167223339</v>
       </c>
       <c r="E98">
-        <v>112.081565941551</v>
+        <v>110.8566167223339</v>
       </c>
       <c r="F98">
         <v>62.10401960519008</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>3.090246760433837</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-107.6522993007478</v>
+        <v>-110.8608703421924</v>
       </c>
       <c r="E99">
-        <v>113.8327928216155</v>
+        <v>110.8608703421924</v>
       </c>
       <c r="F99">
         <v>-36.49097217874697</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.7934976634566606</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-111.5255215064179</v>
+        <v>-110.8487999373712</v>
       </c>
       <c r="E100">
-        <v>109.9385261795046</v>
+        <v>110.8487999373712</v>
       </c>
       <c r="F100">
         <v>18.3563726067149</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.5943797685869807</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-110.119367892761</v>
+        <v>-110.8303101094139</v>
       </c>
       <c r="E101">
-        <v>111.3081274299349</v>
+        <v>110.8303101094139</v>
       </c>
       <c r="F101">
         <v>71.26354607270642</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>3.284106161037489</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-107.4413084025874</v>
+        <v>-110.8424600965506</v>
       </c>
       <c r="E102">
-        <v>114.0095207246623</v>
+        <v>110.8424600965506</v>
       </c>
       <c r="F102">
         <v>63.8896414328606</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>3.693249797680156</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-107.0352637323555</v>
+        <v>-110.8481656809844</v>
       </c>
       <c r="E103">
-        <v>114.4217633277158</v>
+        <v>110.8481656809844</v>
       </c>
       <c r="F103">
         <v>6.243584217293119</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>1.247761837174952</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-109.46017084611</v>
+        <v>-110.8277732693887</v>
       </c>
       <c r="E104">
-        <v>111.9556945204599</v>
+        <v>110.8277732693887</v>
       </c>
       <c r="F104">
         <v>-31.47748882589951</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-1.422140898636564</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-112.1187466165842</v>
+        <v>-110.8135350577421</v>
       </c>
       <c r="E105">
-        <v>109.274464819311</v>
+        <v>110.8135350577421</v>
       </c>
       <c r="F105">
         <v>-228.5307096491508</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-10.69393517165139</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-121.7026137737715</v>
+        <v>-111.1293722549307</v>
       </c>
       <c r="E106">
-        <v>100.3147434304687</v>
+        <v>111.1293722549307</v>
       </c>
       <c r="F106">
         <v>2.467222749793052</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.2205275781183992</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-111.2096721684975</v>
+        <v>-111.1087380948744</v>
       </c>
       <c r="E107">
-        <v>110.7686170122607</v>
+        <v>111.1087380948744</v>
       </c>
       <c r="F107">
         <v>53.26750761742147</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>2.465490356078372</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-108.5213001447987</v>
+        <v>-111.1063200146236</v>
       </c>
       <c r="E108">
-        <v>113.4522808569555</v>
+        <v>111.1063200146236</v>
       </c>
       <c r="F108">
         <v>-21.56121867806675</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-1.050991547708126</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-112.0208625013579</v>
+        <v>-111.0886545829031</v>
       </c>
       <c r="E109">
-        <v>109.9188794059417</v>
+        <v>111.0886545829031</v>
       </c>
       <c r="F109">
         <v>-56.56534998050944</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-2.5895187012707</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-113.5584849259556</v>
+        <v>-111.0885726989452</v>
       </c>
       <c r="E110">
-        <v>108.3794475234142</v>
+        <v>111.0885726989452</v>
       </c>
       <c r="F110">
         <v>9.99374719175421</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.5560524978825743</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-110.3933078368062</v>
+        <v>-111.0685793034656</v>
       </c>
       <c r="E111">
-        <v>111.5054128325714</v>
+        <v>111.0685793034656</v>
       </c>
       <c r="F111">
         <v>-55.82148355892897</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-2.594050953305377</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-113.5433377545471</v>
+        <v>-111.0679680543224</v>
       </c>
       <c r="E112">
-        <v>108.3552358479363</v>
+        <v>111.0679680543224</v>
       </c>
       <c r="F112">
         <v>-39.31031327047734</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-1.766184239657945</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-112.7035268223426</v>
+        <v>-111.0572735214238</v>
       </c>
       <c r="E113">
-        <v>109.1711583430267</v>
+        <v>111.0572735214238</v>
       </c>
       <c r="F113">
         <v>2.653685778721382</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.1672416635502003</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-110.7496355177827</v>
+        <v>-111.036712493629</v>
       </c>
       <c r="E114">
-        <v>111.0841188448832</v>
+        <v>111.036712493629</v>
       </c>
       <c r="F114">
         <v>-7.97551251223183</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.374628121617239</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-111.271367469691</v>
+        <v>-111.0165259400371</v>
       </c>
       <c r="E115">
-        <v>110.5221112264565</v>
+        <v>111.0165259400371</v>
       </c>
       <c r="F115">
         <v>2.663328849535418</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.1325876127202372</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-110.7436500929548</v>
+        <v>-110.9959880614921</v>
       </c>
       <c r="E116">
-        <v>111.0088253183953</v>
+        <v>110.9959880614921</v>
       </c>
       <c r="F116">
         <v>67.60413031960155</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>3.140918841973638</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-107.7439856802866</v>
+        <v>-111.0047319574595</v>
       </c>
       <c r="E117">
-        <v>114.0258233642339</v>
+        <v>111.0047319574595</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.08114956643488529</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-110.9455735178756</v>
+        <v>-110.9841660041644</v>
       </c>
       <c r="E118">
-        <v>110.7832743850058</v>
+        <v>110.9841660041644</v>
       </c>
       <c r="F118">
         <v>-43.84932445503011</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-2.034543587219098</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-112.8906055469746</v>
+        <v>-110.9759379692953</v>
       </c>
       <c r="E119">
-        <v>108.8215183725364</v>
+        <v>110.9759379692953</v>
       </c>
       <c r="F119">
         <v>-47.90098164826446</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-2.15964880207657</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-113.0086817414901</v>
+        <v>-110.9700977177065</v>
       </c>
       <c r="E120">
-        <v>108.6893841373369</v>
+        <v>110.9700977177065</v>
       </c>
       <c r="F120">
         <v>-41.15221391729165</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-1.863207649055884</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-112.7015400345904</v>
+        <v>-110.9604111763965</v>
       </c>
       <c r="E121">
-        <v>108.9751247364786</v>
+        <v>110.9604111763965</v>
       </c>
       <c r="F121">
         <v>-33.78043482130266</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-1.543173423571935</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-112.3675776055425</v>
+        <v>-110.9471929704136</v>
       </c>
       <c r="E122">
-        <v>109.2812307583986</v>
+        <v>110.9471929704136</v>
       </c>
       <c r="F122">
         <v>-20.07471862611609</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.9123281782161969</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-111.7184582819057</v>
+        <v>-110.9292563651561</v>
       </c>
       <c r="E123">
-        <v>109.8938019254733</v>
+        <v>110.9292563651561</v>
       </c>
       <c r="F123">
         <v>2.884912329031408</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.1565506255106113</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-110.6291850902489</v>
+        <v>-110.908803272268</v>
       </c>
       <c r="E124">
-        <v>110.9422863412701</v>
+        <v>110.908803272268</v>
       </c>
       <c r="F124">
         <v>-26.17382754516342</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-1.236571506927062</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-112.0062901285112</v>
+        <v>-110.8926935028916</v>
       </c>
       <c r="E125">
-        <v>109.533147114657</v>
+        <v>110.8926935028916</v>
       </c>
       <c r="F125">
         <v>51.88269290475986</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>2.460417570732726</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-108.306919048893</v>
+        <v>-110.8894349518007</v>
       </c>
       <c r="E126">
-        <v>113.2277541903585</v>
+        <v>110.8894349518007</v>
       </c>
       <c r="F126">
         <v>16.8896013929448</v>
